--- a/Результат.xlsx
+++ b/Результат.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -459,10 +463,8 @@
           <t>50939101</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>06.01.22</t>
-        </is>
+      <c r="C2" s="2" t="n">
+        <v>44567</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -479,10 +481,8 @@
           <t>75062032</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>08.01.22</t>
-        </is>
+      <c r="C3" s="2" t="n">
+        <v>44569</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -499,10 +499,8 @@
           <t>53058216</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13.01.22</t>
-        </is>
+      <c r="C4" s="2" t="n">
+        <v>44574</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -519,10 +517,8 @@
           <t>50022069</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22.01.22</t>
-        </is>
+      <c r="C5" s="2" t="n">
+        <v>44583</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/Результат.xlsx
+++ b/Результат.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,15 +460,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>50939101</t>
+          <t>51474897</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44567</v>
+        <v>44683</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Номера нет в таблице Ближаший номер: 50937101 Дата подачи: 2022.04.01</t>
+          <t>Номера нет в таблице Ближаший номер: 51474997 Дата подачи: 2022.04.30</t>
         </is>
       </c>
     </row>
@@ -478,15 +478,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>75062032</t>
+          <t>51140059</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44569</v>
+        <v>44685</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Номера нет в таблице Ближаший номер: 75063032 Дата подачи: 2022.07.01</t>
+          <t>Номера нет в таблице Ближаший номер: 51141059 Дата подачи: 2022.05.02</t>
         </is>
       </c>
     </row>
@@ -496,15 +496,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>53058216</t>
+          <t>54084067</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44574</v>
+        <v>44692</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Номера нет в таблице Ближаший номер: 73058216 Дата подачи: 2022.11.01</t>
+          <t>Номера нет в таблице Ближаший номер: 54084066 Дата подачи: 2022.05.09</t>
         </is>
       </c>
     </row>
@@ -514,15 +514,105 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>50022069</t>
+          <t>50674472</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44583</v>
+        <v>44692</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Номера нет в таблице Ближаший номер: 51022069 Дата подачи: 2022.01.22</t>
+          <t>Номера нет в таблице Ближаший номер: 50774975 Дата подачи: 2022.05.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>51564838</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44696</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Номера нет в таблице Ближаший номер: 51574838 Дата подачи: 2022.05.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>54056648</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Номера нет в таблице Ближаший номер: 54054648 Дата подачи: 2022.05.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>74983474</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Номера нет в таблице Ближаший номер: 74933474 Дата подачи: 2022.05.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>51281522</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Номера нет в таблице Ближаший номер: 51281525 Дата подачи: 2022.05.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>57110486</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Номера нет в таблице Ближаший номер: 75110486 Дата подачи: 2022.05.20</t>
         </is>
       </c>
     </row>

--- a/Результат.xlsx
+++ b/Результат.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,15 +456,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>51474897</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44683</v>
-      </c>
+          <t>51133842</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Номера нет в таблице Ближаший номер: 51474997 Дата подачи: 2022.04.30</t>
+          <t>Номера нет в таблице Ближаший номер: 51137842 Дата подачи: 2022.06.21</t>
         </is>
       </c>
     </row>
@@ -478,15 +472,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>51140059</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44685</v>
-      </c>
+          <t>57723992</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Номера нет в таблице Ближаший номер: 51141059 Дата подачи: 2022.05.02</t>
+          <t>Номера нет в таблице Ближаший номер: 57727992 Дата подачи: 2022.06.21</t>
         </is>
       </c>
     </row>
@@ -496,123 +488,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>54084067</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44692</v>
-      </c>
+          <t>54687328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Номера нет в таблице Ближаший номер: 54084066 Дата подачи: 2022.05.09</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>50674472</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44692</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Номера нет в таблице Ближаший номер: 50774975 Дата подачи: 2022.05.08</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>51564838</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44696</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Номера нет в таблице Ближаший номер: 51574838 Дата подачи: 2022.05.14</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>54056648</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44698</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Номера нет в таблице Ближаший номер: 54054648 Дата подачи: 2022.05.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>74983474</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44700</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Номера нет в таблице Ближаший номер: 74933474 Дата подачи: 2022.05.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>51281522</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44700</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Номера нет в таблице Ближаший номер: 51281525 Дата подачи: 2022.05.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>57110486</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44702</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Номера нет в таблице Ближаший номер: 75110486 Дата подачи: 2022.05.20</t>
+          <t>Номера нет в таблице Ближаший номер: 54887328 Дата подачи: 2022.06.13</t>
         </is>
       </c>
     </row>
